--- a/09 Registros de Producción/programacion semanal de alimento/2023/Modulo 2 Lote M614-F613/informes de produccion/Formato caracterizacion mortalidad.xlsx
+++ b/09 Registros de Producción/programacion semanal de alimento/2023/Modulo 2 Lote M614-F613/informes de produccion/Formato caracterizacion mortalidad.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pm199\OneDrive\Documentos\Produccion\09 Registros de Producción\programacion semanal de alimento\2023\Modulo 2 Lote M614-F613\informes de produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aviagen\Produccion\09 Registros de Producción\programacion semanal de alimento\2023\Modulo 2 Lote M614-F613\informes de produccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A131B-F7F8-4F44-A4CF-88503E06AB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E6285C4-9422-44D0-8FE3-20EAFEE57A26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="M3" sheetId="1" r:id="rId1"/>
     <sheet name="M2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Prolapso</t>
   </si>
@@ -93,12 +92,15 @@
   <si>
     <t>CARACTERIZACION DE MORTALIDAD</t>
   </si>
+  <si>
+    <t>Julio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +145,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -158,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -227,46 +237,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -439,7 +419,44 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -448,11 +465,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -461,12 +495,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -475,8 +511,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,19 +523,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,40 +560,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,14 +1055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AADC90-37D0-4039-9ACA-77DFC98A1D0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,79 +1075,79 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
       <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="23">
         <v>3</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="G3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1127,116 +1167,121 @@
       <c r="N5" s="13"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>55</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45809</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="2">
-        <v>45810</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="2">
-        <v>45811</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>59</v>
+      </c>
+      <c r="B7" s="36">
+        <v>45839</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="4">
+        <f>B7+1</f>
+        <v>45840</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>60</v>
+      </c>
+      <c r="B9" s="36">
+        <f t="shared" ref="B9:B37" si="0">B8+1</f>
+        <v>45841</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
       <c r="B10" s="2">
-        <v>45812</v>
+        <f t="shared" si="0"/>
+        <v>45842</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1252,12 +1297,11 @@
       <c r="N10" s="1"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>56</v>
-      </c>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
       <c r="B11" s="2">
-        <v>45813</v>
+        <f t="shared" si="0"/>
+        <v>45843</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1273,10 +1317,11 @@
       <c r="N11" s="1"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
       <c r="B12" s="2">
-        <v>45814</v>
+        <f t="shared" si="0"/>
+        <v>45844</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1292,10 +1337,11 @@
       <c r="N12" s="1"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
       <c r="B13" s="2">
-        <v>45815</v>
+        <f t="shared" si="0"/>
+        <v>45845</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1311,10 +1357,11 @@
       <c r="N13" s="1"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
       <c r="B14" s="2">
-        <v>45816</v>
+        <f t="shared" si="0"/>
+        <v>45846</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1330,48 +1377,53 @@
       <c r="N14" s="1"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="2">
-        <v>45817</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="2">
-        <v>45818</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+    <row r="15" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>45847</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>61</v>
+      </c>
+      <c r="B16" s="36">
+        <f t="shared" si="0"/>
+        <v>45848</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
       <c r="B17" s="2">
-        <v>45819</v>
+        <f t="shared" si="0"/>
+        <v>45849</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1387,12 +1439,11 @@
       <c r="N17" s="1"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
-        <v>57</v>
-      </c>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
       <c r="B18" s="2">
-        <v>45820</v>
+        <f t="shared" si="0"/>
+        <v>45850</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1408,10 +1459,11 @@
       <c r="N18" s="1"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
       <c r="B19" s="2">
-        <v>45821</v>
+        <f t="shared" si="0"/>
+        <v>45851</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1427,10 +1479,11 @@
       <c r="N19" s="1"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
       <c r="B20" s="2">
-        <v>45822</v>
+        <f t="shared" si="0"/>
+        <v>45852</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1446,10 +1499,11 @@
       <c r="N20" s="1"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
       <c r="B21" s="2">
-        <v>45823</v>
+        <f t="shared" si="0"/>
+        <v>45853</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1465,48 +1519,53 @@
       <c r="N21" s="1"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="2">
-        <v>45824</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="2">
-        <v>45825</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+    <row r="22" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>45854</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>62</v>
+      </c>
+      <c r="B23" s="36">
+        <f t="shared" si="0"/>
+        <v>45855</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
       <c r="B24" s="2">
-        <v>45826</v>
+        <f t="shared" si="0"/>
+        <v>45856</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1522,12 +1581,11 @@
       <c r="N24" s="1"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
-        <v>58</v>
-      </c>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
       <c r="B25" s="2">
-        <v>45827</v>
+        <f t="shared" si="0"/>
+        <v>45857</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1543,10 +1601,11 @@
       <c r="N25" s="1"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
       <c r="B26" s="2">
-        <v>45828</v>
+        <f t="shared" si="0"/>
+        <v>45858</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1562,10 +1621,11 @@
       <c r="N26" s="1"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
       <c r="B27" s="2">
-        <v>45829</v>
+        <f t="shared" si="0"/>
+        <v>45859</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1581,10 +1641,11 @@
       <c r="N27" s="1"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
       <c r="B28" s="2">
-        <v>45830</v>
+        <f t="shared" si="0"/>
+        <v>45860</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1600,48 +1661,53 @@
       <c r="N28" s="1"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="2">
-        <v>45831</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="2">
-        <v>45832</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+    <row r="29" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>45861</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <v>63</v>
+      </c>
+      <c r="B30" s="36">
+        <f t="shared" si="0"/>
+        <v>45862</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="38"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
       <c r="B31" s="2">
-        <v>45833</v>
+        <f t="shared" si="0"/>
+        <v>45863</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1657,12 +1723,11 @@
       <c r="N31" s="1"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
-        <v>59</v>
-      </c>
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
       <c r="B32" s="2">
-        <v>45834</v>
+        <f t="shared" si="0"/>
+        <v>45864</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1678,10 +1743,11 @@
       <c r="N32" s="1"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
       <c r="B33" s="2">
-        <v>45835</v>
+        <f t="shared" si="0"/>
+        <v>45865</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1697,10 +1763,11 @@
       <c r="N33" s="1"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
       <c r="B34" s="2">
-        <v>45836</v>
+        <f t="shared" si="0"/>
+        <v>45866</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1716,10 +1783,11 @@
       <c r="N34" s="1"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
       <c r="B35" s="2">
-        <v>45837</v>
+        <f t="shared" si="0"/>
+        <v>45867</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1735,10 +1803,11 @@
       <c r="N35" s="1"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
       <c r="B36" s="4">
-        <v>45838</v>
+        <f t="shared" si="0"/>
+        <v>45868</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1754,27 +1823,49 @@
       <c r="N36" s="5"/>
       <c r="O36" s="6"/>
     </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40">
+        <v>64</v>
+      </c>
+      <c r="B37" s="41">
+        <f t="shared" si="0"/>
+        <v>45869</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="43"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A32:A36"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C1:N2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A36"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDDE8BC-E35D-41BE-9878-0BECD9303085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1810,26 +1901,26 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="26">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="27"/>
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1897,7 +1988,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="28">
         <v>62</v>
       </c>
       <c r="B6" s="2">
@@ -1918,7 +2009,7 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="2">
         <v>45810</v>
       </c>
@@ -1937,7 +2028,7 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="2">
         <v>45811</v>
       </c>
@@ -1956,7 +2047,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="28">
         <v>63</v>
       </c>
       <c r="B9" s="2">
@@ -1977,7 +2068,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="2">
         <v>45813</v>
       </c>
@@ -1996,7 +2087,7 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="2">
         <v>45814</v>
       </c>
@@ -2015,7 +2106,7 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="2">
         <v>45815</v>
       </c>
@@ -2034,7 +2125,7 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="2">
         <v>45816</v>
       </c>
@@ -2053,7 +2144,7 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="2">
         <v>45817</v>
       </c>
@@ -2072,7 +2163,7 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="2">
         <v>45818</v>
       </c>
@@ -2091,7 +2182,7 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="28">
         <v>64</v>
       </c>
       <c r="B16" s="2">
@@ -2112,7 +2203,7 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="2">
         <v>45820</v>
       </c>
@@ -2131,7 +2222,7 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="2">
         <v>45821</v>
       </c>
@@ -2150,7 +2241,7 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="2">
         <v>45822</v>
       </c>
@@ -2169,7 +2260,7 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="2">
         <v>45823</v>
       </c>
@@ -2188,7 +2279,7 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="2">
         <v>45824</v>
       </c>
@@ -2207,7 +2298,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="2">
         <v>45825</v>
       </c>
@@ -2226,7 +2317,7 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="28">
         <v>65</v>
       </c>
       <c r="B23" s="2">
@@ -2247,7 +2338,7 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="2">
         <v>45827</v>
       </c>
@@ -2266,7 +2357,7 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="2">
         <v>45828</v>
       </c>
@@ -2285,7 +2376,7 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="2">
         <v>45829</v>
       </c>
@@ -2304,7 +2395,7 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="2">
         <v>45830</v>
       </c>
@@ -2323,7 +2414,7 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="2">
         <v>45831</v>
       </c>
@@ -2342,7 +2433,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="2">
         <v>45832</v>
       </c>
@@ -2361,7 +2452,7 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="A30" s="28">
         <v>66</v>
       </c>
       <c r="B30" s="2">
@@ -2382,7 +2473,7 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="2">
         <v>45834</v>
       </c>
@@ -2401,7 +2492,7 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="2">
         <v>45835</v>
       </c>
@@ -2420,7 +2511,7 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="2">
         <v>45836</v>
       </c>
@@ -2439,7 +2530,7 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="2">
         <v>45837</v>
       </c>
@@ -2458,7 +2549,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="4">
         <v>45838</v>
       </c>
@@ -2478,15 +2569,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A35"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
